--- a/Tables/guide/guide.xlsx
+++ b/Tables/guide/guide.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="1335" yWindow="465" windowWidth="17580" windowHeight="11145"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>A</t>
   </si>
@@ -278,58 +278,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>HomePanel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TopPanelTrigger:#0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡模式引导</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三星成就引导</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MedalGetterPanel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>自由模式引导</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TopPanelTrigger:#0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelSelectPanel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>派对模式引导</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TopPanelTrigger:#0;LevelComplateTrigger:A-1-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>派对模式引导2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelComplateTrigger:A-1-10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PartyPanel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>JumpTrigger</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -343,25 +291,13 @@
   </si>
   <si>
     <t>JumpTrigger</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LevelComplateTrigger:A-1-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TopPanelTrigger:#0;DecorateUnlockTrigger:10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DecorateUnlockTrigger:10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -603,53 +539,53 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,7 +675,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -774,7 +710,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -982,14 +918,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1019,7 +955,7 @@
         <v>55</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1039,7 +975,7 @@
         <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1059,7 +995,7 @@
         <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1079,95 +1015,7 @@
         <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="C6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1181,7 +1029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1213,16 +1061,16 @@
       <c r="G3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="13"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="16.5" customHeight="1">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2">
@@ -1234,22 +1082,22 @@
       <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="20" t="s">
+      <c r="I4" s="12"/>
+      <c r="J4" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:15" ht="16.5">
-      <c r="B5" s="10"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="2">
         <v>3</v>
       </c>
@@ -1259,14 +1107,14 @@
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="21"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="2:15" ht="16.5">
-      <c r="B6" s="10"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="2">
         <v>3</v>
       </c>
@@ -1276,14 +1124,14 @@
       <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="2:15" ht="16.5">
-      <c r="B7" s="10"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="2">
         <v>3</v>
       </c>
@@ -1293,14 +1141,14 @@
       <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="2:15" ht="16.5">
-      <c r="B8" s="10"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="2">
         <v>3</v>
       </c>
@@ -1310,14 +1158,14 @@
       <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="21"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="2:15" ht="16.5">
-      <c r="B9" s="10"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="2">
         <v>3</v>
       </c>
@@ -1327,11 +1175,11 @@
       <c r="E9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="22"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="12" spans="2:15" s="7" customFormat="1" ht="16.5">
       <c r="B12" s="1" t="s">
@@ -1349,22 +1197,22 @@
       <c r="F12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9" t="s">
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
     </row>
     <row r="13" spans="2:15" s="7" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="20" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="6">
@@ -1376,25 +1224,25 @@
       <c r="E13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11" t="s">
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
     </row>
     <row r="14" spans="2:15" s="7" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B14" s="10"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="6">
         <v>1</v>
       </c>
@@ -1404,19 +1252,19 @@
       <c r="E14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
     </row>
     <row r="15" spans="2:15" s="7" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B15" s="10"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="6">
         <v>1</v>
       </c>
@@ -1426,19 +1274,19 @@
       <c r="E15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
     </row>
     <row r="16" spans="2:15" s="7" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B16" s="10"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="6">
         <v>1</v>
       </c>
@@ -1448,19 +1296,19 @@
       <c r="E16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
     </row>
     <row r="17" spans="2:15" s="7" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B17" s="10"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="6">
         <v>1</v>
       </c>
@@ -1470,25 +1318,19 @@
       <c r="E17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I9"/>
-    <mergeCell ref="J4:J9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="G4:G9"/>
-    <mergeCell ref="F4:F9"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="L12:O12"/>
     <mergeCell ref="B13:B17"/>
@@ -1499,6 +1341,12 @@
     <mergeCell ref="G15:K15"/>
     <mergeCell ref="G16:K16"/>
     <mergeCell ref="G17:K17"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I9"/>
+    <mergeCell ref="J4:J9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="F4:F9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1506,7 +1354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
